--- a/results/gurobi_cplex_comparison/seed_20_k_10.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_10.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.005</v>
+        <v>0.312</v>
       </c>
       <c r="F2">
-        <v>0.017</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.016</v>
+        <v>0.512</v>
       </c>
       <c r="F3">
-        <v>0.046</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.027</v>
+        <v>0.701</v>
       </c>
       <c r="F4">
-        <v>0.06</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.035</v>
+        <v>0.955</v>
       </c>
       <c r="F5">
-        <v>0.101</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.034</v>
+        <v>0.976</v>
       </c>
       <c r="F6">
-        <v>0.109</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.024</v>
+        <v>1.138</v>
       </c>
       <c r="F7">
-        <v>0.074</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.022</v>
+        <v>1.362</v>
       </c>
       <c r="F8">
-        <v>0.062</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.051</v>
+        <v>1.667</v>
       </c>
       <c r="F9">
-        <v>0.129</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.034</v>
+        <v>1.927</v>
       </c>
       <c r="F10">
-        <v>0.055</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.016</v>
+        <v>2.236</v>
       </c>
       <c r="F11">
-        <v>0.041</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.018</v>
+        <v>2.74</v>
       </c>
       <c r="F12">
-        <v>0.051</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.068</v>
+        <v>3.093</v>
       </c>
       <c r="F13">
-        <v>54.09</v>
+        <v>9.571999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.027</v>
+        <v>3.247</v>
       </c>
       <c r="F14">
-        <v>82.866</v>
+        <v>98.52200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.108</v>
+        <v>3.744</v>
       </c>
       <c r="F15">
-        <v>4.059</v>
+        <v>43.174</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.059</v>
+        <v>4.094</v>
       </c>
       <c r="F16">
-        <v>0.194</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.041</v>
+        <v>4.779</v>
       </c>
       <c r="F17">
-        <v>3.519</v>
+        <v>15.344</v>
       </c>
     </row>
   </sheetData>
